--- a/data/hotels_by_city/Houston/Houston_shard_467.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_467.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="538">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56907-d1100073-Reviews-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Beaumont-Hotels-La-Quinta-Inn-Suites-Winnie.h2059000.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1507 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r604260296-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>1100073</t>
+  </si>
+  <si>
+    <t>604260296</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Dump.</t>
+  </si>
+  <si>
+    <t>Where to begin. To begin with the air walking towards the hotel smelled like a landfill. Trash all around the hotel, as well. Inside the girl behind the desk had zero personality. If she wasn't attached to her phone I don't know how she would stay balanced.Getting to our room the telephone didn't work, someone ripped out the temperature control in the fridge, missing door handle on cabinet, several fixtures of some sort were missing in the ceiling (  holes where a smoke detector might belong ...they gave us another room and that phone didn't work either. So, the third room they gave us right off the bat the light wouldn't turn on by the bed so my wife went to see if the bulb was loose and as soon as she touched it the bulb feel apart sending glass everywhere. WE WERE DONE! As we went down the elevator there was a guy opening up a beer who appeared to be a little intoxicated. We went to check out and told the girl about the experiences and she acted like we were the problem . We have stayed at many La Quintas but this one is an embarrassment to the chain. OH, I forgot about the stains on the bed spread. Thankfully, they weren't the only place in town. We found a place next door that was PERFECT!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Where to begin. To begin with the air walking towards the hotel smelled like a landfill. Trash all around the hotel, as well. Inside the girl behind the desk had zero personality. If she wasn't attached to her phone I don't know how she would stay balanced.Getting to our room the telephone didn't work, someone ripped out the temperature control in the fridge, missing door handle on cabinet, several fixtures of some sort were missing in the ceiling (  holes where a smoke detector might belong ...they gave us another room and that phone didn't work either. So, the third room they gave us right off the bat the light wouldn't turn on by the bed so my wife went to see if the bulb was loose and as soon as she touched it the bulb feel apart sending glass everywhere. WE WERE DONE! As we went down the elevator there was a guy opening up a beer who appeared to be a little intoxicated. We went to check out and told the girl about the experiences and she acted like we were the problem . We have stayed at many La Quintas but this one is an embarrassment to the chain. OH, I forgot about the stains on the bed spread. Thankfully, they weren't the only place in town. We found a place next door that was PERFECT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r597566024-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>597566024</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>Noxious fumes throughout, causing an irritated throat. Pool was green. Elevator gave us a scare when it dropped down a few inches from floor one before going up. Furniture piled up in the hallways due to the remodeling. Rooms freshly repainted but all windows have plastic covering the glass on the outside so you cannot see outside. Carpets stained. Why would a hotel rent rooms when it is in this condition?</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r592302390-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>592302390</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Vacation  time</t>
+  </si>
+  <si>
+    <t>Pet friendly   love that swimming  pool  clean  a little oil on carpet  but OK with that still remodeling  bed comfortable   the breakfast  was good.hotel  staff was friendly .Location  was easy to find restaurant  close  second  time to stay and will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Pet friendly   love that swimming  pool  clean  a little oil on carpet  but OK with that still remodeling  bed comfortable   the breakfast  was good.hotel  staff was friendly .Location  was easy to find restaurant  close  second  time to stay and will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r586108802-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>586108802</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>I wish I had got her name but the Lady staff member who was there was incredible.  She made every accommodation we could possibly require.  We were a High School group on a Rocketry Competition trip.  There were approximately 15 of us and she made the entire arrangement work perfectly.  And MOST APPRECIATED the fact she started breakfast early just for US because we had to check out before 6am  THANK YOU,  You were WONDERFUL Hope to see you next yearMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>I wish I had got her name but the Lady staff member who was there was incredible.  She made every accommodation we could possibly require.  We were a High School group on a Rocketry Competition trip.  There were approximately 15 of us and she made the entire arrangement work perfectly.  And MOST APPRECIATED the fact she started breakfast early just for US because we had to check out before 6am  THANK YOU,  You were WONDERFUL Hope to see you next yearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r574094270-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>574094270</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Tired and in need of some help</t>
+  </si>
+  <si>
+    <t>The lobby was being remodeled which created noxious fumes. No notification of this was made before my stay. They told me the third floor had already been remodeled but the hall carpet was dirty and stained, my bathroom fan cover was hanging off and the fan was extremely noisy. I love to stay at La Quinta, but the Winnie property is not well managed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>allovertours, Guest Relations Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>The lobby was being remodeled which created noxious fumes. No notification of this was made before my stay. They told me the third floor had already been remodeled but the hall carpet was dirty and stained, my bathroom fan cover was hanging off and the fan was extremely noisy. I love to stay at La Quinta, but the Winnie property is not well managed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r572321068-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>572321068</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Not updated yet</t>
+  </si>
+  <si>
+    <t>This place needs updating and they are in the process.  But, I saw poor workmanship.  Grout not being cleaned properly, paint on places where it didn't belong, corners not aligned, etc.  But there were some very distressing things.  The pool was covered with a foamy green scum, the first room we were given was not made up with unmade bed and uncleared, the room we stayed in had a door that wouldn't lock.  Would not recommend MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>This place needs updating and they are in the process.  But, I saw poor workmanship.  Grout not being cleaned properly, paint on places where it didn't belong, corners not aligned, etc.  But there were some very distressing things.  The pool was covered with a foamy green scum, the first room we were given was not made up with unmade bed and uncleared, the room we stayed in had a door that wouldn't lock.  Would not recommend More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r546467852-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>546467852</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Winnie TX visit</t>
+  </si>
+  <si>
+    <t>This is my first review. Where do I begin? We walked in the room and a bad mildew smell hit us in the face. There are stains all over the floor in the hall and in Room also a big tear in carpet in room. Our microwave doesn't work. I had to go ask the front desk lady to reheat my food. The toilet seat is falling off. The bed is very comfortable though. We only picked this hotel because of the free pets. Next time I would pay the pet deposit for a better Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>This is my first review. Where do I begin? We walked in the room and a bad mildew smell hit us in the face. There are stains all over the floor in the hall and in Room also a big tear in carpet in room. Our microwave doesn't work. I had to go ask the front desk lady to reheat my food. The toilet seat is falling off. The bed is very comfortable though. We only picked this hotel because of the free pets. Next time I would pay the pet deposit for a better Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r546089812-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>546089812</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Good stop</t>
+  </si>
+  <si>
+    <t>I only pass through Winne a few times a year, and if the timing is right, I will try to stay in this La Quinta.  The clerk was reasonably friendly and the rooms are clean and comfortable.  The prices are fair, so I have no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>I only pass through Winne a few times a year, and if the timing is right, I will try to stay in this La Quinta.  The clerk was reasonably friendly and the rooms are clean and comfortable.  The prices are fair, so I have no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r545396236-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>545396236</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Not clean. Stay anywhere else but here</t>
+  </si>
+  <si>
+    <t>The staff is really nice but that is the only positive thing about this hotel. The room was so gross I did not feel comfortable sleeping under the covers. There was a hole in the duvet, the carpet had a huge rip in the middle of the room, the bathroom door was flithy and the bathroom was atrocious. The walls are extremely thin so you can hear neighbors talking and slamming doors. I was right next to the elevator so I was kept up all night. After checking in I called down to switch rooms but the hotel was sold out. Unfortunately so was every other hotel in a 50 mile radius. I would have resorted to sleeping in my car because the bed was that repulsive but the weather dropped down to freezing. Over all, save yourself the trouble and book somewhere else, anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>The staff is really nice but that is the only positive thing about this hotel. The room was so gross I did not feel comfortable sleeping under the covers. There was a hole in the duvet, the carpet had a huge rip in the middle of the room, the bathroom door was flithy and the bathroom was atrocious. The walls are extremely thin so you can hear neighbors talking and slamming doors. I was right next to the elevator so I was kept up all night. After checking in I called down to switch rooms but the hotel was sold out. Unfortunately so was every other hotel in a 50 mile radius. I would have resorted to sleeping in my car because the bed was that repulsive but the weather dropped down to freezing. Over all, save yourself the trouble and book somewhere else, anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r510282184-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>510282184</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Worst room on road trip!</t>
+  </si>
+  <si>
+    <t>Stayed at hotel for one night on way to San Antonio. Guests are too nice on their ratings of this property.  We were given room 103 and were told the the carpet was worn due to a dog scratching at the floor. The carpet was torn in five dfferent places, the toilet ran constantly and squealed so badly that we had to turn the water off to the toilet so we could sleep. Refrigerator was missing, and cabinet was beat up and scarred and was missing it's handle. The was a four foot gash in the wall that needed repair and painting. Towel rod over toilet was so rusted it had turned completely brown. Door handle missing from closet. Sheets on bed were so worn the top sheet ripped when I pulled it up.  The side chair was terribly worn and needed to be tossed, and finally, the pool was closed for cleaning (which the receptionist was trying to handle along with all her other duties). I am surprised La Quinta has not pulled the franchise on this property. This room should be pulled from service until repairs are made.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at hotel for one night on way to San Antonio. Guests are too nice on their ratings of this property.  We were given room 103 and were told the the carpet was worn due to a dog scratching at the floor. The carpet was torn in five dfferent places, the toilet ran constantly and squealed so badly that we had to turn the water off to the toilet so we could sleep. Refrigerator was missing, and cabinet was beat up and scarred and was missing it's handle. The was a four foot gash in the wall that needed repair and painting. Towel rod over toilet was so rusted it had turned completely brown. Door handle missing from closet. Sheets on bed were so worn the top sheet ripped when I pulled it up.  The side chair was terribly worn and needed to be tossed, and finally, the pool was closed for cleaning (which the receptionist was trying to handle along with all her other duties). I am surprised La Quinta has not pulled the franchise on this property. This room should be pulled from service until repairs are made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r506048095-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>506048095</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>ADA RI Shower is good</t>
+  </si>
+  <si>
+    <t>Roll-in shower in room 102 is good, but the adjustable sprayer does not stay in place for tall person &amp; it needs a soap tray &amp; longer curtain; best water temp is straight-up handle. Double beds are comfy; not queen. Spacious bathroom, wheelchair sink, low water pressure at sink but shower is fine. Great staff, good breakfast, easy access from I-10, 30 minutes from Crystal Beach.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r503155158-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>503155158</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Dont care</t>
+  </si>
+  <si>
+    <t>Reported shower broke to front desk, they did nothing, dog barked in room below us, again, nothing done to quiet or remove. This property is going down hill and they are not taking care of the guests. Been staying here for a few years and just going downMoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Reported shower broke to front desk, they did nothing, dog barked in room below us, again, nothing done to quiet or remove. This property is going down hill and they are not taking care of the guests. Been staying here for a few years and just going downMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r494735050-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>494735050</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>don't like the new mattresses</t>
+  </si>
+  <si>
+    <t>Memory foam mattresses feel like sleeping on an ironing board--too hard, but that is because I am used to sleeping on a pillow top mattress at home.  This may not bother other people. The check-in process was excellent.  The clerk wanted to make sure that we were satisfied with the location of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Memory foam mattresses feel like sleeping on an ironing board--too hard, but that is because I am used to sleeping on a pillow top mattress at home.  This may not bother other people. The check-in process was excellent.  The clerk wanted to make sure that we were satisfied with the location of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r490857272-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>490857272</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Beach Boy</t>
+  </si>
+  <si>
+    <t>Just 20 minutes to the beach nice hotel, better than fighting traffic on the ferry. staying at over priced Galveston hotels. we went to the beach for the day, left around 5 got to the hotel at six had a good Cajun sinner next door slept like a baby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r489521381-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>489521381</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>I had a clean room.  The staff was friendly.  There was   breakfast in the morning, though no "real juice" (only orange flavored beverage).  The refrigerator in the room worked.  This hotel served its purpose without breaking the bank.  I am satisfied.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r464374182-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>464374182</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Not worth the name..</t>
+  </si>
+  <si>
+    <t>After traveling cross country, were looking forward to a nice hotel and la Quinta are normally very nice.  The bed was comfortable and the room was clean.  The shower had so little water pressure that it literally just drizzled and the tub was plugged up, so standing in who knows what.  Then,  the elevator was broken.. we went to eat breakfast and while there were two employees, the dining room tables and counters were filthy!  When my husband asked where the bagels were, to an employee who had just brought one out for herself, she acted like it was a huge inconvenience!  Don't suggest staying here...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>After traveling cross country, were looking forward to a nice hotel and la Quinta are normally very nice.  The bed was comfortable and the room was clean.  The shower had so little water pressure that it literally just drizzled and the tub was plugged up, so standing in who knows what.  Then,  the elevator was broken.. we went to eat breakfast and while there were two employees, the dining room tables and counters were filthy!  When my husband asked where the bagels were, to an employee who had just brought one out for herself, she acted like it was a huge inconvenience!  Don't suggest staying here...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r448966926-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>448966926</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Safe and Fulfilling</t>
+  </si>
+  <si>
+    <t>We felt safe at this location. We were able to view the car from our room. The room was large, very nice and clean. The receptionist and night manager were more than helpful.  The breakfast was outstanding. It had more choices than the usual selections we find.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>allovertours, Guest Relations Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>We felt safe at this location. We were able to view the car from our room. The room was large, very nice and clean. The receptionist and night manager were more than helpful.  The breakfast was outstanding. It had more choices than the usual selections we find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r439417031-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>439417031</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Dog Friendly Hotel is 'Great'!</t>
+  </si>
+  <si>
+    <t>The staff here were wonderful; the 'pet friendly' service was great; there was a nice area to 'air' dogs; and the overall visit was great and I'll stay here again whenever I'm in that area of Texas!! The breakfast food was excellent quality and abundant. The staff are to be commended for their excellent service and attention to details; they were most helpful.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r392250611-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>392250611</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Desk person decided to sleep instead of work</t>
+  </si>
+  <si>
+    <t>The hotel was clean and had a room available even though I booked the day of, but I have never been so unhappy with our stay as I was with my one night stay here. There is not a lot of parking and people have a lot of big trucks and trailers that take up space, so just FYI. I made a reservation through the phone app, but they didn't have it when I got there. I was still able to get a room. I went to check out, I never got my slip under the door saying I didn't need to see the front desk like you normally do at hotels, but there was no one at the desk. I rang their bell, I went back to my room and called the front desk, I called the hotel from my cell phone, no answer. Other people were trying to check out too. I called their corporate number which no one is in at 530 AM and I talked to people at reservations trying to get help to check out. I was very upset. I needed to leave to avoid traffic in Houston since I have extreme anxiety in traffic. After 45 minutes of calling, ringing their bell, speaking with reservations who had their manager calling the regional manager for the area to try and find someone, the lady behind the desk finally came out from the back yawning, hair...The hotel was clean and had a room available even though I booked the day of, but I have never been so unhappy with our stay as I was with my one night stay here. There is not a lot of parking and people have a lot of big trucks and trailers that take up space, so just FYI. I made a reservation through the phone app, but they didn't have it when I got there. I was still able to get a room. I went to check out, I never got my slip under the door saying I didn't need to see the front desk like you normally do at hotels, but there was no one at the desk. I rang their bell, I went back to my room and called the front desk, I called the hotel from my cell phone, no answer. Other people were trying to check out too. I called their corporate number which no one is in at 530 AM and I talked to people at reservations trying to get help to check out. I was very upset. I needed to leave to avoid traffic in Houston since I have extreme anxiety in traffic. After 45 minutes of calling, ringing their bell, speaking with reservations who had their manager calling the regional manager for the area to try and find someone, the lady behind the desk finally came out from the back yawning, hair disheveled, and obviously just waking up. I was 36 weeks pregnant and had to carry my 29 lb son I was not allowed to lift, all around trying to find someone to check me out. She was so unprofessional. I'd sleep in my car before staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, Guest Relations Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean and had a room available even though I booked the day of, but I have never been so unhappy with our stay as I was with my one night stay here. There is not a lot of parking and people have a lot of big trucks and trailers that take up space, so just FYI. I made a reservation through the phone app, but they didn't have it when I got there. I was still able to get a room. I went to check out, I never got my slip under the door saying I didn't need to see the front desk like you normally do at hotels, but there was no one at the desk. I rang their bell, I went back to my room and called the front desk, I called the hotel from my cell phone, no answer. Other people were trying to check out too. I called their corporate number which no one is in at 530 AM and I talked to people at reservations trying to get help to check out. I was very upset. I needed to leave to avoid traffic in Houston since I have extreme anxiety in traffic. After 45 minutes of calling, ringing their bell, speaking with reservations who had their manager calling the regional manager for the area to try and find someone, the lady behind the desk finally came out from the back yawning, hair...The hotel was clean and had a room available even though I booked the day of, but I have never been so unhappy with our stay as I was with my one night stay here. There is not a lot of parking and people have a lot of big trucks and trailers that take up space, so just FYI. I made a reservation through the phone app, but they didn't have it when I got there. I was still able to get a room. I went to check out, I never got my slip under the door saying I didn't need to see the front desk like you normally do at hotels, but there was no one at the desk. I rang their bell, I went back to my room and called the front desk, I called the hotel from my cell phone, no answer. Other people were trying to check out too. I called their corporate number which no one is in at 530 AM and I talked to people at reservations trying to get help to check out. I was very upset. I needed to leave to avoid traffic in Houston since I have extreme anxiety in traffic. After 45 minutes of calling, ringing their bell, speaking with reservations who had their manager calling the regional manager for the area to try and find someone, the lady behind the desk finally came out from the back yawning, hair disheveled, and obviously just waking up. I was 36 weeks pregnant and had to carry my 29 lb son I was not allowed to lift, all around trying to find someone to check me out. She was so unprofessional. I'd sleep in my car before staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r384959020-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>384959020</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Horrible Ownership and Hotel</t>
+  </si>
+  <si>
+    <t>I originally booked a two room suite, for two nights.  I always stay at la quinta i like the size of the room for the price, but this time in winnie tx has ruined that relationship. First problem we had and I let it go was the a/c in our two room suite, the a/c in the front room knobs were broke so we had to turn the a/c off, that was not a big problem. We let the hotel know but nothing was done about it. Second problem we had after being out all day at bbq cook off, we get back to the hotel and our bathroom toilet doesn't work along with three other rooms in our party. My uncle had to keep going out of his room to the lobby to use the restroom, again nothing done for him, but back to my problem. They eventually switch my wife and kids to a smaller room, but still charging us the same price!! I had to make arrangements to have my kids stay with a family member cause, i wasn't going to let them sleep on the floor. Also in the second room we had roaches, i have a video if proof needed!! So i talked to the receptionist who switched us to another room which was small room, but still the same price! The receptionist told me the manager would take care of the problem when she...I originally booked a two room suite, for two nights.  I always stay at la quinta i like the size of the room for the price, but this time in winnie tx has ruined that relationship. First problem we had and I let it go was the a/c in our two room suite, the a/c in the front room knobs were broke so we had to turn the a/c off, that was not a big problem. We let the hotel know but nothing was done about it. Second problem we had after being out all day at bbq cook off, we get back to the hotel and our bathroom toilet doesn't work along with three other rooms in our party. My uncle had to keep going out of his room to the lobby to use the restroom, again nothing done for him, but back to my problem. They eventually switch my wife and kids to a smaller room, but still charging us the same price!! I had to make arrangements to have my kids stay with a family member cause, i wasn't going to let them sleep on the floor. Also in the second room we had roaches, i have a video if proof needed!! So i talked to the receptionist who switched us to another room which was small room, but still the same price! The receptionist told me the manager would take care of the problem when she got in that morning, again she did nothing! The manager said the owner would call me and make it right, not only for me but my family members that i recommended to this hotel, never received a phone call or anything. La quinta winnie made damn sure they debit my account $205.00 though. Thank you la quinta winnie for the crappie room and service and i'll make sure to keep posting this as much as possible for others to see.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>allovertours, Front Desk at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>I originally booked a two room suite, for two nights.  I always stay at la quinta i like the size of the room for the price, but this time in winnie tx has ruined that relationship. First problem we had and I let it go was the a/c in our two room suite, the a/c in the front room knobs were broke so we had to turn the a/c off, that was not a big problem. We let the hotel know but nothing was done about it. Second problem we had after being out all day at bbq cook off, we get back to the hotel and our bathroom toilet doesn't work along with three other rooms in our party. My uncle had to keep going out of his room to the lobby to use the restroom, again nothing done for him, but back to my problem. They eventually switch my wife and kids to a smaller room, but still charging us the same price!! I had to make arrangements to have my kids stay with a family member cause, i wasn't going to let them sleep on the floor. Also in the second room we had roaches, i have a video if proof needed!! So i talked to the receptionist who switched us to another room which was small room, but still the same price! The receptionist told me the manager would take care of the problem when she...I originally booked a two room suite, for two nights.  I always stay at la quinta i like the size of the room for the price, but this time in winnie tx has ruined that relationship. First problem we had and I let it go was the a/c in our two room suite, the a/c in the front room knobs were broke so we had to turn the a/c off, that was not a big problem. We let the hotel know but nothing was done about it. Second problem we had after being out all day at bbq cook off, we get back to the hotel and our bathroom toilet doesn't work along with three other rooms in our party. My uncle had to keep going out of his room to the lobby to use the restroom, again nothing done for him, but back to my problem. They eventually switch my wife and kids to a smaller room, but still charging us the same price!! I had to make arrangements to have my kids stay with a family member cause, i wasn't going to let them sleep on the floor. Also in the second room we had roaches, i have a video if proof needed!! So i talked to the receptionist who switched us to another room which was small room, but still the same price! The receptionist told me the manager would take care of the problem when she got in that morning, again she did nothing! The manager said the owner would call me and make it right, not only for me but my family members that i recommended to this hotel, never received a phone call or anything. La quinta winnie made damn sure they debit my account $205.00 though. Thank you la quinta winnie for the crappie room and service and i'll make sure to keep posting this as much as possible for others to see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r374891792-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>374891792</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Our suite was sweet!</t>
+  </si>
+  <si>
+    <t>We always stay at this La Quinta when we are birding at High Island and Anahuak.  It is just right for us.  The staff is efficient and friendly and the price is right!  The King suite was fabulous for this trip as we had 3 people...2 took the bed and one one the sofa bed...perfect.When I discovered I had left my iPad charger there, I called and Kerry told me just what to do..  She called me just this morning to let me know that it is in the mail back to me.  How is that for customer service?  Wow! I am impressed!  Thanks again!MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>We always stay at this La Quinta when we are birding at High Island and Anahuak.  It is just right for us.  The staff is efficient and friendly and the price is right!  The King suite was fabulous for this trip as we had 3 people...2 took the bed and one one the sofa bed...perfect.When I discovered I had left my iPad charger there, I called and Kerry told me just what to do..  She called me just this morning to let me know that it is in the mail back to me.  How is that for customer service?  Wow! I am impressed!  Thanks again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r372513510-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>372513510</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>La Quinta - where to stay if you travel with your pet</t>
+  </si>
+  <si>
+    <t>This hotel chain offers very nice hassle free accomodations for people who travel with their pets. The rooms are always spacious and comfortable, the rates are reasonable, and you never get a hassle about your dog or cat.MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>This hotel chain offers very nice hassle free accomodations for people who travel with their pets. The rooms are always spacious and comfortable, the rates are reasonable, and you never get a hassle about your dog or cat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r369495321-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>369495321</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Great motel for birders</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay here.  Very clean rooms and the breakfast was wonderful!  Had omelette and sausage besides the other continental regulars.  Also waffle maker.  Wonderful location to get to high island birding areas and anahuac wildlife refuge .My only disappointment was the wifi was very slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay here.  Very clean rooms and the breakfast was wonderful!  Had omelette and sausage besides the other continental regulars.  Also waffle maker.  Wonderful location to get to high island birding areas and anahuac wildlife refuge .My only disappointment was the wifi was very slow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r367037585-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>367037585</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Feb had shower problems</t>
+  </si>
+  <si>
+    <t>Well as I was looking at the trip advisor reviews I noticed there were water pressure issues on April 20. I reported this to the front desk when we stayed there in late Feb or early March.    There must be some new owners. This property has steadily gone down hill. I have stayed at this location several times. The last couple there have been problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Well as I was looking at the trip advisor reviews I noticed there were water pressure issues on April 20. I reported this to the front desk when we stayed there in late Feb or early March.    There must be some new owners. This property has steadily gone down hill. I have stayed at this location several times. The last couple there have been problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r364294903-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>364294903</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>We enjoy staying at La Quinta hotels.  We like the service,we received upon our arrive and when we leave. Rooms are alway clean and sunny and on the floor we like. Breakfast there are various of food to eat and where we eat are always clean and tidy.MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>We enjoy staying at La Quinta hotels.  We like the service,we received upon our arrive and when we leave. Rooms are alway clean and sunny and on the floor we like. Breakfast there are various of food to eat and where we eat are always clean and tidy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r362447160-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>362447160</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Traveling to Louisiana</t>
+  </si>
+  <si>
+    <t>Very good.  Conveniently located to off/on interstate, restaurant, etc.  200 is way to many characters, especially if you have nothing negative to relate.  Everything was good as I previously stated in your other questions.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r357733791-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>357733791</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Texas trip</t>
+  </si>
+  <si>
+    <t>Was traveling with pet and LaQuinta always is welcoming to our family pets.  The check in was quick and the young lady at the desk was much more than helpful and professional.  I was pleasantly impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Was traveling with pet and LaQuinta always is welcoming to our family pets.  The check in was quick and the young lady at the desk was much more than helpful and professional.  I was pleasantly impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r331528348-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>331528348</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>This hotel is NOT recommended for women traveling alone. Hallways smell like pot, loud music playing, when I complained to the front desk, they did NOTHING. My room didn't even have a phone in it. Doors on the side didn't lock either. Very poor place. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>allovertours, Front Office Manager at La Quinta Inn &amp; Suites Winnie, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is NOT recommended for women traveling alone. Hallways smell like pot, loud music playing, when I complained to the front desk, they did NOTHING. My room didn't even have a phone in it. Doors on the side didn't lock either. Very poor place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r327397700-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>327397700</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Nice stay for the night</t>
+  </si>
+  <si>
+    <t>Needed a place to stay one Saturday as I was in town. Stopped in here and Rachel at the front desk was very helpful in getting me a great, reasonable rate. The room was clean. Beds comfortable. Hotel was quiet. I didn't take advantage of the free breakfast or pool. Nice late check-out at noon which was good. The hotel is right off the I-10 (but no need to worry about any freeway noise.) All-in-all very pleased with my stay here.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r324927517-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>324927517</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Fantastic place!</t>
+  </si>
+  <si>
+    <t>This was a great choice for an overnight stay. Of major concern when I travel is the cleanliness and this place sparkled. The bed was very comfortable and the decor was very nice. The bathroom was great. My dog, whom I travel with, was welcomed. Their breakfast was amazing! Thanks for a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r321064835-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>321064835</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Everything I needed</t>
+  </si>
+  <si>
+    <t>I have a dog and they made us feel welcomed.  I had all the special touches - a refrigerator and microwave - and coffeemaker.  They had good wi-fi that was easy to connect to.  They had good selections for breakfast and a pool. My room was clean and the ice machine was close.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r316068993-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>316068993</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Mildew smell</t>
+  </si>
+  <si>
+    <t>We went to this hotel for a quick trip for a concert.  Upon arrival we were given a key to a room and when we entered the room, it had a heavy mildew smell. We went down and asked for another room. The clerk gave us the key to another room... when we entered that room, the door wouldn't open. It was jammed and after having the clerk explain that it was just Jammed, we settled with that room. We wanted another one but he explained that was his only available room. The smell of mold/mildew was so bad. The hall on the 3rd floor had a horrible smell. The mildew or mold smell was very very bad. If you happen to stay here, ask to see your room before they charge your card. It was terrible.  The clerk was nice, though he didn't seem concerned with the odor. My card had been charged or I would have opted to stay elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to this hotel for a quick trip for a concert.  Upon arrival we were given a key to a room and when we entered the room, it had a heavy mildew smell. We went down and asked for another room. The clerk gave us the key to another room... when we entered that room, the door wouldn't open. It was jammed and after having the clerk explain that it was just Jammed, we settled with that room. We wanted another one but he explained that was his only available room. The smell of mold/mildew was so bad. The hall on the 3rd floor had a horrible smell. The mildew or mold smell was very very bad. If you happen to stay here, ask to see your room before they charge your card. It was terrible.  The clerk was nice, though he didn't seem concerned with the odor. My card had been charged or I would have opted to stay elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r312418211-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>312418211</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Bad hotel</t>
+  </si>
+  <si>
+    <t>We spent one night here passing through. First of all our bed was damp, there was mold in shower, electrical burn marks on ceiling, dust on furniture and some white matter on bed skirt see photos. I called La Quinta to complain and I was basically giving run around. Spare yourself do not stay in this hotel. I would much rather sleep in my car.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r301519849-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>301519849</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel "HOWEVER????)</t>
+  </si>
+  <si>
+    <t>Had a great stay at your hotel, excellent service, great breakfast, great for parking a boat trailer, However please get that swimming pool regulated. Very dirty and one of the guest informed me they had to put their own "shock" in the water to clear it up. This is summer time and kids like that water. I still recommend your hotel to others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r297618043-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>297618043</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Okay For The Price.</t>
+  </si>
+  <si>
+    <t>We had a few problems but it wasn't a bad looking hotel. After booking three king rooms we were given three queen rooms. They were only able to fix one of the rooms to a King and that was okay, the other two didn't need it anyways. The air conditioner in two of the rooms was not working and we attempted to get them fixed but it did no good, it was extremely warm in the rooms for both nights stayed. 
+The beds were extremely comfortable and made from memory foam which made for a good nights sleep. Since this is a cheaper hotel near the beach there were tons of children there for the weekend. We could hear people running back and forth ALL NIGHT LONG above us. There was so much banging, jumping, running, and yelling that it was hard to sleep. At one point the staff actually knocked on OUR door and asked us to keep it down because there had been complaints from downstairs. We explained that it wasn't us, we had a giggling baby and were all sitting in the beds not moving around, but they insisted we stay quiet. Okay....
+If you want to take a bath this is not the hotel for it, there is absolutely no water pressure. It is like turning on the tap at the lowest level unless you just use the shower head.
+It is the easiest hotel to...We had a few problems but it wasn't a bad looking hotel. After booking three king rooms we were given three queen rooms. They were only able to fix one of the rooms to a King and that was okay, the other two didn't need it anyways. The air conditioner in two of the rooms was not working and we attempted to get them fixed but it did no good, it was extremely warm in the rooms for both nights stayed. The beds were extremely comfortable and made from memory foam which made for a good nights sleep. Since this is a cheaper hotel near the beach there were tons of children there for the weekend. We could hear people running back and forth ALL NIGHT LONG above us. There was so much banging, jumping, running, and yelling that it was hard to sleep. At one point the staff actually knocked on OUR door and asked us to keep it down because there had been complaints from downstairs. We explained that it wasn't us, we had a giggling baby and were all sitting in the beds not moving around, but they insisted we stay quiet. Okay....If you want to take a bath this is not the hotel for it, there is absolutely no water pressure. It is like turning on the tap at the lowest level unless you just use the shower head.It is the easiest hotel to stay at if you are going to the beach so none of these problems are a big deal if it's a family vacation. Not recommended for anything else, though, due to the noise level. Staff was very friendly and helpful, none of this was their fault at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We had a few problems but it wasn't a bad looking hotel. After booking three king rooms we were given three queen rooms. They were only able to fix one of the rooms to a King and that was okay, the other two didn't need it anyways. The air conditioner in two of the rooms was not working and we attempted to get them fixed but it did no good, it was extremely warm in the rooms for both nights stayed. 
+The beds were extremely comfortable and made from memory foam which made for a good nights sleep. Since this is a cheaper hotel near the beach there were tons of children there for the weekend. We could hear people running back and forth ALL NIGHT LONG above us. There was so much banging, jumping, running, and yelling that it was hard to sleep. At one point the staff actually knocked on OUR door and asked us to keep it down because there had been complaints from downstairs. We explained that it wasn't us, we had a giggling baby and were all sitting in the beds not moving around, but they insisted we stay quiet. Okay....
+If you want to take a bath this is not the hotel for it, there is absolutely no water pressure. It is like turning on the tap at the lowest level unless you just use the shower head.
+It is the easiest hotel to...We had a few problems but it wasn't a bad looking hotel. After booking three king rooms we were given three queen rooms. They were only able to fix one of the rooms to a King and that was okay, the other two didn't need it anyways. The air conditioner in two of the rooms was not working and we attempted to get them fixed but it did no good, it was extremely warm in the rooms for both nights stayed. The beds were extremely comfortable and made from memory foam which made for a good nights sleep. Since this is a cheaper hotel near the beach there were tons of children there for the weekend. We could hear people running back and forth ALL NIGHT LONG above us. There was so much banging, jumping, running, and yelling that it was hard to sleep. At one point the staff actually knocked on OUR door and asked us to keep it down because there had been complaints from downstairs. We explained that it wasn't us, we had a giggling baby and were all sitting in the beds not moving around, but they insisted we stay quiet. Okay....If you want to take a bath this is not the hotel for it, there is absolutely no water pressure. It is like turning on the tap at the lowest level unless you just use the shower head.It is the easiest hotel to stay at if you are going to the beach so none of these problems are a big deal if it's a family vacation. Not recommended for anything else, though, due to the noise level. Staff was very friendly and helpful, none of this was their fault at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r294819627-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>294819627</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place! </t>
+  </si>
+  <si>
+    <t>Miss Carla checked us in this evening, although she was new, she did a great job! The place was nice,  clean and comfy! The place is off the main road and really quiet, too. I'll have no problem staying here when I come back to town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r289730368-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>289730368</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>4th of July Trip</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and easy to get to the beach from the location,the beds and pillows were wonderful.. the room was nice, the breakfast was good, it was worth the time and money for a holiday get away.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r272416074-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>272416074</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Better than we imagined</t>
+  </si>
+  <si>
+    <t>We were going to be visiting High Island and Anahuac National Wildlife Refuge and decided to stay in Winnie for the weekend. We like to stay at La Quinta chains because it allows us to bring the dog. When we arrived late on Friday, the front attendant had zero communication skills. After this experience I was afraid of what we might find in the room, but it was very clean and the air conditioner was cranking. Breakfast was so-so. But the biggest disappointment was the swimming pool which was not only green, but full of dead crawdads. I know it was early May, but it was warm enough for the girls to have enjoyed a quick dip. We will probably stay again on our next birding trip, just for the convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We were going to be visiting High Island and Anahuac National Wildlife Refuge and decided to stay in Winnie for the weekend. We like to stay at La Quinta chains because it allows us to bring the dog. When we arrived late on Friday, the front attendant had zero communication skills. After this experience I was afraid of what we might find in the room, but it was very clean and the air conditioner was cranking. Breakfast was so-so. But the biggest disappointment was the swimming pool which was not only green, but full of dead crawdads. I know it was early May, but it was warm enough for the girls to have enjoyed a quick dip. We will probably stay again on our next birding trip, just for the convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r268992973-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>268992973</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>When checking in the refrigerator in the room was not working, they replaced it immediately with a working frig.  There for a birding trip to High Island, very good location.  Everyone was very courteous, friendly and helpful.  We forgot to leave the air on one day and it was a little musty when we returned which I'm sure was due to the high humdity, but it cleared out quickly once the air was turned back on.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r267440491-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>267440491</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Would try another hotel next time</t>
+  </si>
+  <si>
+    <t>The room had a horrible disinfectant smell. No milk the first day at breakfast, no butter the next day. Internet was useless on the weekend. Leftover dregs served for breakfast on our last day.  Bell at front desk was plugged with Kleenex so ringer did not work! Did, however,  appreciate laundry soap tab from front desk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r267656205-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>267656205</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Very Good Deal</t>
+  </si>
+  <si>
+    <t>The hotel is just off the interstate to where it is quiet, convenient to restaurants and shopping. Staff was pleasant and very helpful with anything asked for. Very enjoyable and relaxing. Small country atmosphere but only moments away from big town shopping and beautiful scene.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r263614882-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>263614882</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r257861612-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>257861612</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>What happened to the attention to details?</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel approximately 4 times over the past 5 years.  During this stay, we were there two nights. Hopefully management is aware that there are details that now need attention.  These issues were not noted during past visits. 
+We checked in on Friday &amp; were told that Saturday breakfast ran until 10 a.m.
+We went down to breakfast at 9:30 only to find that the only food available was one green apple, some sort of dried burritos and very dry looking Canadian bacon. The scrambled eggs were all gone. The syrup was empty. The juice was empty. We left and went to Denny's for breakfast. Discouraging. (But the Denny's breakfast was good!)
+The hotel still has Tempur-Pedic mattresses, but they are starting to show some sag. Even so, they are still comfortable &amp; we rested well. We were on the third floor because we were told it would be the quietest...and it was. We like a window overlooking the parking lot. And even though that front side faces the interstate, you are far enough from it that there is no interstate noise.
+I was very surprised to discover that some plaster was peeling off a wall &amp; that mold was growing inside some of the art on the walls. (Pics attached)
+We had a spacious room with two queens - it had a microwave &amp; fridge &amp; both worked well.  There's also a large desk with...We have stayed at this hotel approximately 4 times over the past 5 years.  During this stay, we were there two nights. Hopefully management is aware that there are details that now need attention.  These issues were not noted during past visits. We checked in on Friday &amp; were told that Saturday breakfast ran until 10 a.m.We went down to breakfast at 9:30 only to find that the only food available was one green apple, some sort of dried burritos and very dry looking Canadian bacon. The scrambled eggs were all gone. The syrup was empty. The juice was empty. We left and went to Denny's for breakfast. Discouraging. (But the Denny's breakfast was good!)The hotel still has Tempur-Pedic mattresses, but they are starting to show some sag. Even so, they are still comfortable &amp; we rested well. We were on the third floor because we were told it would be the quietest...and it was. We like a window overlooking the parking lot. And even though that front side faces the interstate, you are far enough from it that there is no interstate noise.I was very surprised to discover that some plaster was peeling off a wall &amp; that mold was growing inside some of the art on the walls. (Pics attached)We had a spacious room with two queens - it had a microwave &amp; fridge &amp; both worked well.  There's also a large desk with convenient plugins &amp; also plugins on the lamps beside the beds. Much appreciated! Wifi worked well even on the third floor. The heating unit worked well and was quiet. Breakfast on the second morning included powdered/scrambled eggs, sausage links, biscuits (hard) and sausage gravy...and I believe waffles were available although we did not try them.This bathroom is one of the annoying ones that has only one switch that when flipped on, both the lights and exhaust fan come on. Such a noisy fan! It's so much better when you can control the two separately. Both the room and the bath were clean &amp; had plenty of towels &amp; washcloths. This was still a good stay...but be aware that the elevator sounds like Darth Vader is breathing down your neck. Really!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel approximately 4 times over the past 5 years.  During this stay, we were there two nights. Hopefully management is aware that there are details that now need attention.  These issues were not noted during past visits. 
+We checked in on Friday &amp; were told that Saturday breakfast ran until 10 a.m.
+We went down to breakfast at 9:30 only to find that the only food available was one green apple, some sort of dried burritos and very dry looking Canadian bacon. The scrambled eggs were all gone. The syrup was empty. The juice was empty. We left and went to Denny's for breakfast. Discouraging. (But the Denny's breakfast was good!)
+The hotel still has Tempur-Pedic mattresses, but they are starting to show some sag. Even so, they are still comfortable &amp; we rested well. We were on the third floor because we were told it would be the quietest...and it was. We like a window overlooking the parking lot. And even though that front side faces the interstate, you are far enough from it that there is no interstate noise.
+I was very surprised to discover that some plaster was peeling off a wall &amp; that mold was growing inside some of the art on the walls. (Pics attached)
+We had a spacious room with two queens - it had a microwave &amp; fridge &amp; both worked well.  There's also a large desk with...We have stayed at this hotel approximately 4 times over the past 5 years.  During this stay, we were there two nights. Hopefully management is aware that there are details that now need attention.  These issues were not noted during past visits. We checked in on Friday &amp; were told that Saturday breakfast ran until 10 a.m.We went down to breakfast at 9:30 only to find that the only food available was one green apple, some sort of dried burritos and very dry looking Canadian bacon. The scrambled eggs were all gone. The syrup was empty. The juice was empty. We left and went to Denny's for breakfast. Discouraging. (But the Denny's breakfast was good!)The hotel still has Tempur-Pedic mattresses, but they are starting to show some sag. Even so, they are still comfortable &amp; we rested well. We were on the third floor because we were told it would be the quietest...and it was. We like a window overlooking the parking lot. And even though that front side faces the interstate, you are far enough from it that there is no interstate noise.I was very surprised to discover that some plaster was peeling off a wall &amp; that mold was growing inside some of the art on the walls. (Pics attached)We had a spacious room with two queens - it had a microwave &amp; fridge &amp; both worked well.  There's also a large desk with convenient plugins &amp; also plugins on the lamps beside the beds. Much appreciated! Wifi worked well even on the third floor. The heating unit worked well and was quiet. Breakfast on the second morning included powdered/scrambled eggs, sausage links, biscuits (hard) and sausage gravy...and I believe waffles were available although we did not try them.This bathroom is one of the annoying ones that has only one switch that when flipped on, both the lights and exhaust fan come on. Such a noisy fan! It's so much better when you can control the two separately. Both the room and the bath were clean &amp; had plenty of towels &amp; washcloths. This was still a good stay...but be aware that the elevator sounds like Darth Vader is breathing down your neck. Really!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r262858982-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>262858982</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Winnie TX</t>
+  </si>
+  <si>
+    <t>Very clean, good room, good wi-fi - very convenient to I-10.   There was a minor problem with the magnetic key which the front desk staff fixed immediately.  I will stay here again if on the same route and schedule.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r254319495-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>254319495</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>I stayed here overnight with friends. My room was very clean and included microwave, fridge, etc. I was traveling with my dogs and there was plenty of grassy space for them to exercise. The hotel was located next to a restaurant so we could just walk over to eat. I will stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r242154916-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>242154916</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Perfect for pets and for dinning</t>
+  </si>
+  <si>
+    <t>Very close to the I-10, nice spot for a stop in a long trip.Fantastic for pets (friendly hotel and some open fields close to the hotel), perfect sleeping, wide variety of food around the hotel.And really cheap. Stop here.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r238890764-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>238890764</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Good choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and service was friendly from every staff member we interacted with. Near a variety of restaurants, within walking distance. Decent wifi. Breakfast was very good, sausage, eggs, waffles, bagels, cereal. Only downside was the beds were very firm. Other than that, I would recommend this motel to anyone, looking for a good place at a decent price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r238890072-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>238890072</t>
+  </si>
+  <si>
+    <t>Perfect for pets</t>
+  </si>
+  <si>
+    <t>This hotel is clean and comfortable. It has the usual amenities: fridge, microwave, and coffeemaker in the room. We slept well, as it's set back from the highway a bit.The breakfast is not huge, yet it's filling, and the waffles are great. They not only allow pets, they love them. It was our dog's first trip, and it made it much easier for us to stay somewhere he was welcomed. There were plenty a huge open places to walk him.We would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r231924339-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>231924339</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>"Great 2 nights of sleep"</t>
+  </si>
+  <si>
+    <t>Decided to stay at the La Quinta Inn &amp; Suites in Winnie since we usually stay at La Quinta while traveling. We arrived late and was greeted by very friendly staff. Room was very clean and was staying in king suite with sleeper sofa. The couple who was traveling with us said the sleeper sofa was very comfortable and she is 6 months pregnant! Had plenty of towels and shower was very clean with plenty of hot water. Great breakfast which included eggs, sausage, gravy, waffles, boiled eggs, toast, cereal, 3 different kinds of juice and coffee. This has to be one of the nicest, cleanest, and quietest La Quinta's we have stayed in. We WILL be staying at this La Quinta again when we come down to fish at Rollover Pass!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Decided to stay at the La Quinta Inn &amp; Suites in Winnie since we usually stay at La Quinta while traveling. We arrived late and was greeted by very friendly staff. Room was very clean and was staying in king suite with sleeper sofa. The couple who was traveling with us said the sleeper sofa was very comfortable and she is 6 months pregnant! Had plenty of towels and shower was very clean with plenty of hot water. Great breakfast which included eggs, sausage, gravy, waffles, boiled eggs, toast, cereal, 3 different kinds of juice and coffee. This has to be one of the nicest, cleanest, and quietest La Quinta's we have stayed in. We WILL be staying at this La Quinta again when we come down to fish at Rollover Pass!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r228511544-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>228511544</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Incredible Tempurpedic Beds</t>
+  </si>
+  <si>
+    <t>This was a nice, very clean hotel with a good breakfast including eggs, sausage, etc, but the most incredible attribute was the tempurpedic beds.  We will be back every time we are on our way to Houston because we slept so well.  We also used the very clean pool.  The hotel is a tiny bit hard to see from the interstate, but it is very close.  The staff was very friendly and the maintenance staff was not only efficient but very quiet.  From the hotel we drove south to the ferry to Galveston.  It was scenic and we enjoyed the ferry ride and the historic center of Galveston.For some reason the elevator looks crummy, but that is the only negative thing about the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice, very clean hotel with a good breakfast including eggs, sausage, etc, but the most incredible attribute was the tempurpedic beds.  We will be back every time we are on our way to Houston because we slept so well.  We also used the very clean pool.  The hotel is a tiny bit hard to see from the interstate, but it is very close.  The staff was very friendly and the maintenance staff was not only efficient but very quiet.  From the hotel we drove south to the ferry to Galveston.  It was scenic and we enjoyed the ferry ride and the historic center of Galveston.For some reason the elevator looks crummy, but that is the only negative thing about the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r218785800-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>218785800</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>An ok stop along the wY</t>
+  </si>
+  <si>
+    <t>We were traveling to New Orleans and needed a stop along the way.  We stopped at this hotel based on the reviews found on this site.  The hotel staff was friendly. The room was clean and the bed was very comfortable.  However, the compressor on the air conditioner kept going on and off all night and kept my husband awake.  The pool was small and dirty.  It needed a vacuuming .  There were living ad dead bugs in the water.  The breakfast a standard affair.  I think I might think again before staying there again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r211174669-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>211174669</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Friendly but needs a refresh</t>
+  </si>
+  <si>
+    <t>Hotel was on our way home from Florida and have stayed many times at LQ I&amp;S but this was a little below the standard I've come to expect. Maintenance seems to be lacking a little and AC didn't perform well in my room. Very curtious staff and would stay again if some refreshing was done to rooms and baths.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r207837989-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>207837989</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Very nice room &amp; friendly staff</t>
+  </si>
+  <si>
+    <t>This is a great hotel for a quick overnight or extended stay for birding etc. The staff was friendly &amp; helpful &amp; it is a great La Quinta property.The room was large, very clean and quiet. It is an easy drive to the birding hotspots from this location.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r206739986-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>206739986</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, and Comfortable!</t>
+  </si>
+  <si>
+    <t>This was the best La Quinta I've ever stayed in.  The entire hotel seemed to have been refurbished; the rooms were as nicely appointed as some 4-star hotels I have stayed in.  The bed was extremely comfortable, and the room was spotless. Some have noted the noise, but I didn't even know other people were staying there.  I didn't stay for breakfast.  For under sixty bucks this couldn't be better.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r203873326-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>203873326</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Just ok maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I always stay La Quinta. If you can drive down the road the one in Orange has better hospitality &amp; breakfast. There was nothing wrong with my room. House keeping barged in room with out knocking which in my opinion is not acceptable &amp; was just an overall unwelcome feeling. There was only one lady I wish I would've got her name that was even friendly. I know this is longer than my normal review if I have to stay in Winnie again I won't stay there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r202920212-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>202920212</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Won't be back</t>
+  </si>
+  <si>
+    <t>The room was clean, bed was comfortable. I guess I just expected a a little more since I had friends recommend the chain. No internet the entire stay... internet and a place to sleep were all I really needed. It was a disappointment and I will not stay there on my next trip to Winnie.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r202752105-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>202752105</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Emergency Use</t>
+  </si>
+  <si>
+    <t>We were trying to make miles the first day so Winnie is where we ran out of energy and pulled in to La Quinta. We never stay at La Quinta, but did this time, Room was ok, food in the AM was ok if you like starch but hey that is life. Would not stay there again, but it was ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r200876392-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>200876392</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with attentive staff. Would definitely stay here  again. No complaints!</t>
+  </si>
+  <si>
+    <t>Front desk staff were attentive and friendly. Rooms were clean and comfortable. Good value for the price. Close to great Cajun food across the street at AL-T's Seafood. Food was awesome! Hotel offers early breakfast, workout rooms and other amenities. Great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r198223406-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>198223406</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>An OK hotel, but seen better</t>
+  </si>
+  <si>
+    <t>I stayed only one night on my way to Houston. The hotel surroundings were fine, staff were neutral, neither particularly pleasant nor hostile, just indifferent. The room was nice, standard La Quinta fare. No newspaper in the morning, no yoghurt at breakfast. Waffle iron misadjusted, which left the clerk perfectly indifferent. Price was Ok. An excellent seafood restaurant just next door.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r197542438-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>197542438</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Newer hotel</t>
+  </si>
+  <si>
+    <t>Newer hotel. Everything is very new.  We did have a problem with the remote which was unfortunate. The beds are temperpedic which are very comfy. Newer television and furnishings.  I hate when you need to have 200 characters to give a review.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r185497612-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>185497612</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Greatly improved since last time!</t>
+  </si>
+  <si>
+    <t>Had a poor experience in the past (around two years ago), but when I wrote to the manager afterwards, all of our money was refunded!Went back, on the basis that this place seemed determined to please and were very, very pleased to have returned.Could not have had better treatment and the place was very clean and the handicaped facilities absolutely great.It would take a perfectionist with a magnifying glass a long, long time to (maybe) find a fault with this place and given our previous experience, we were critical.That was a waste of time, as the place was great, with extremely helpful staff and delightful facilities.We found no fault with this motel and would definitely book here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Had a poor experience in the past (around two years ago), but when I wrote to the manager afterwards, all of our money was refunded!Went back, on the basis that this place seemed determined to please and were very, very pleased to have returned.Could not have had better treatment and the place was very clean and the handicaped facilities absolutely great.It would take a perfectionist with a magnifying glass a long, long time to (maybe) find a fault with this place and given our previous experience, we were critical.That was a waste of time, as the place was great, with extremely helpful staff and delightful facilities.We found no fault with this motel and would definitely book here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r169531185-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>169531185</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>So-so</t>
+  </si>
+  <si>
+    <t>Horrible internet (better than some but still horribly unstable and no ethernet ports in some rooms), terrible surrounding area. Motel looks nice, but only got rooms cleaned once a week. Staff is friendly, however, the surrounding town is just so scarce that you shouldn't book here for a pleasure visit.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r166222945-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>166222945</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Great clean place to stay!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice clean motel. Will stay here again when I am in area. Less than 20 mins to the beach. Very new looking motel next to the intrstate an pet friendly. Also the bed in the room I was in was very comfortable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r163812756-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>163812756</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Hotel was clean.  Not an impressive area, but it served the purpose for a one night stay.  Close to Galveston, so you can avoid the high prices of Galveston if you don't mind not being in the center of anything.  We thought it was priced a little high, and the view of the dilapidated, closed restaurant is less than appealing.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r155198511-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>155198511</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r154526385-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>154526385</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Everything as Expected</t>
+  </si>
+  <si>
+    <t>We planned an overnight in Winnie as a base for some birding stops and chose La Quinta. Although our room ended up being next to the elevator, we heard no elevator noises nor foot traffic outside the room on a saturday night.  From La Quinta we could walk over to Winnie's colorful Al T's restaurant, always an interesting spot for people watching and decent food. The room was clean and well appointed, kind bed and pillows were comfortable (and I'm picky about pillows). Wifi worked well.  Shower pressure was not super, but having adjustable spray helped.  Commode had some sort of turbo-charged flusher! Loud but unlikely to get stopped up! Only disappointment was that the refrigerator had no freezer section for our cooler ice packs.  Breakfast had the standard fare, waffles, cereal, packaged muffins/danish, but with a step up in having one hot plate with biscuits, decent breakfast egg/sausage burrito, and those fake omelets.  Juice in pitchers was a nice change from dispensers, and there was a bowl of fruit -- bananas, apples and such.  It wasn't the cheapest stay for a small town at $85 plus tax (reservations made same week on line) but we were pleased with the facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>We planned an overnight in Winnie as a base for some birding stops and chose La Quinta. Although our room ended up being next to the elevator, we heard no elevator noises nor foot traffic outside the room on a saturday night.  From La Quinta we could walk over to Winnie's colorful Al T's restaurant, always an interesting spot for people watching and decent food. The room was clean and well appointed, kind bed and pillows were comfortable (and I'm picky about pillows). Wifi worked well.  Shower pressure was not super, but having adjustable spray helped.  Commode had some sort of turbo-charged flusher! Loud but unlikely to get stopped up! Only disappointment was that the refrigerator had no freezer section for our cooler ice packs.  Breakfast had the standard fare, waffles, cereal, packaged muffins/danish, but with a step up in having one hot plate with biscuits, decent breakfast egg/sausage burrito, and those fake omelets.  Juice in pitchers was a nice change from dispensers, and there was a bowl of fruit -- bananas, apples and such.  It wasn't the cheapest stay for a small town at $85 plus tax (reservations made same week on line) but we were pleased with the facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r141864580-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>141864580</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here a month for work.  Rooms are big and spacious well cleaned and daily cleaning is good.Staff is young and it shows.  Often found flirting with guests not professional. Beds were comfy that's what matters.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r141159705-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>141159705</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>will   NOT  stay there again!</t>
+  </si>
+  <si>
+    <t>I had made reservations 2/3 weeks prior to arrival; had asked for queen/king on second/top floor; you'd think with that much advance noticed they would have what we wanted...NOPE.  We did get an upgraded king suite, but it was much too large for the two of us, had NO washcloths or handtowels there, plus it was on the BOTTOM floor.  I had specificially asked if there were kids above us, to which the lady replied "I don't think so"...wrong again.  VERY noisey, bouncing on the floor above us kept us awake and the traffic going in/out of door, beside our room was terrible...all hours of the night.  We did get towels..the next morning!  Breakfast was very scarce...waffle batter was way too thick and tasted very gummy.  Eggs tasted like powdered and nothing much else to offer.  Would have liked to have seen some biscuits with gravy (or sausage gravy) or bagels...the yougurt was good!Would NOT recommend this place, and we will NOT be staying there again.  If all LaQuinta's are like this...they need to go spend a night at the Holiday Inn Express (just around the corner); much better service, and breakfast for a much...much...cheaper price.Learned out lesson!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I had made reservations 2/3 weeks prior to arrival; had asked for queen/king on second/top floor; you'd think with that much advance noticed they would have what we wanted...NOPE.  We did get an upgraded king suite, but it was much too large for the two of us, had NO washcloths or handtowels there, plus it was on the BOTTOM floor.  I had specificially asked if there were kids above us, to which the lady replied "I don't think so"...wrong again.  VERY noisey, bouncing on the floor above us kept us awake and the traffic going in/out of door, beside our room was terrible...all hours of the night.  We did get towels..the next morning!  Breakfast was very scarce...waffle batter was way too thick and tasted very gummy.  Eggs tasted like powdered and nothing much else to offer.  Would have liked to have seen some biscuits with gravy (or sausage gravy) or bagels...the yougurt was good!Would NOT recommend this place, and we will NOT be staying there again.  If all LaQuinta's are like this...they need to go spend a night at the Holiday Inn Express (just around the corner); much better service, and breakfast for a much...much...cheaper price.Learned out lesson!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r138882867-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>138882867</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Stay at winnie</t>
+  </si>
+  <si>
+    <t>Room 320 had a very bad odor had to spray room with deoderizer. at the front desk the last few times i have stayed at this loc. there is someone asleep on couch every evening. one evening he was standing at front desk talking to your employee with just a pair of shorts on this man was covered in tatoos and 300 lbs. Not what i won't to see !</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r130743234-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>130743234</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>If you are in the Houston area and looking for a hotel you won't go wrong in Winnie. The hotel is clean and fresh, the staff is attentive and it is an overall good value...</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r128120043-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>128120043</t>
+  </si>
+  <si>
+    <t>04/18/2012</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Stopped in for a one night stay.  The accommodations were nice but a little too pricey ($87 with military discount) for an 8 hour stay.  It was conveniently located right off of the interstate and it was nice to be able to grab breakfast and hit the road by 5 am.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r127521744-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>127521744</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Really nice stay!</t>
+  </si>
+  <si>
+    <t>Very clean rooms, good breakfast.  When we were checking hotels in the area, we decided on this one because of the friendly staff.  (Holly). The beds were " very comfortable".  We will stay at  La Quinta hotels again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r58223604-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>58223604</t>
+  </si>
+  <si>
+    <t>03/10/2010</t>
+  </si>
+  <si>
+    <t>Clean and FRiendly side doors dont work and Held payment on Two Cards</t>
+  </si>
+  <si>
+    <t>My first impression of hotel was it was clean and the 2 employees I dealt with were friendly. The rooms are nice but small. Bathroom was spacious. The side doors would not let you back in had to walk around to front from hot tub and pool which was weird in a bathing suit having to trapse through lobby. The breakfast was good but were serving gravy and biscuits and biscuits were not replenished. Had to eat bread instead. My complaint was when I made reservation they said that they do not hold money out of account. When we arrived we paid with different card. And the card I used to reserve was locked up with the full amount of room being held for 5 days after stay. They need to let you know this. I had car problems on way home and was unable to use my card because of this and when I called them was told " I dont know what to do, It shouldnt do that" Duh? And also we had room nearest to lobby , on the other side of our wall is the lobby flat screen tv, which was left on all night making sleep almost impossible. Dont accept room 110 if you plan to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>My first impression of hotel was it was clean and the 2 employees I dealt with were friendly. The rooms are nice but small. Bathroom was spacious. The side doors would not let you back in had to walk around to front from hot tub and pool which was weird in a bathing suit having to trapse through lobby. The breakfast was good but were serving gravy and biscuits and biscuits were not replenished. Had to eat bread instead. My complaint was when I made reservation they said that they do not hold money out of account. When we arrived we paid with different card. And the card I used to reserve was locked up with the full amount of room being held for 5 days after stay. They need to let you know this. I had car problems on way home and was unable to use my card because of this and when I called them was told " I dont know what to do, It shouldnt do that" Duh? And also we had room nearest to lobby , on the other side of our wall is the lobby flat screen tv, which was left on all night making sleep almost impossible. Dont accept room 110 if you plan to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r18025623-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>18025623</t>
+  </si>
+  <si>
+    <t>07/18/2008</t>
+  </si>
+  <si>
+    <t>I loved this hotel.</t>
+  </si>
+  <si>
+    <t>I loved this room. Elegant linens, soft topper but firm bed. Huge desk with WiFi so I could get some work done. Nice breakfast. Only negative, pool needed cleaned. Staff was cordial throughout. I would highly recommend it.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1100073-r17647549-La_Quinta_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>17647549</t>
+  </si>
+  <si>
+    <t>07/08/2008</t>
+  </si>
+  <si>
+    <t>New is Nice!</t>
+  </si>
+  <si>
+    <t>This very new hotel was a pleasure. Quiet, extremely clean, and stylish furniture you'd expect from a much more expensive hotel. Granite countertops and showers, Pottery Barn style furniture, etc.  Internet access was easy.  Easy access to the interstate and to nearby beaches.  Complaints include pretty weak breakfast selection and some "finishing touches" they haven't yet incorporated, including trash cans in every room of the suite and a hotel information book with guest services.Stay here before it gets "used"!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2039,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2071,4892 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>219</v>
+      </c>
+      <c r="X23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>287</v>
+      </c>
+      <c r="O32" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>287</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>310</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J40" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>335</v>
+      </c>
+      <c r="O40" t="s">
+        <v>126</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J41" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>342</v>
+      </c>
+      <c r="J42" t="s">
+        <v>343</v>
+      </c>
+      <c r="K42" t="s">
+        <v>344</v>
+      </c>
+      <c r="L42" t="s">
+        <v>345</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>349</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>366</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s">
+        <v>371</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>372</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>373</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>374</v>
+      </c>
+      <c r="J48" t="s">
+        <v>375</v>
+      </c>
+      <c r="K48" t="s">
+        <v>376</v>
+      </c>
+      <c r="L48" t="s">
+        <v>377</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>372</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>378</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>379</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>397</v>
+      </c>
+      <c r="J52" t="s">
+        <v>398</v>
+      </c>
+      <c r="K52" t="s">
+        <v>399</v>
+      </c>
+      <c r="L52" t="s">
+        <v>400</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>403</v>
+      </c>
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" t="s">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s">
+        <v>406</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>407</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>408</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>409</v>
+      </c>
+      <c r="J54" t="s">
+        <v>410</v>
+      </c>
+      <c r="K54" t="s">
+        <v>411</v>
+      </c>
+      <c r="L54" t="s">
+        <v>412</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>413</v>
+      </c>
+      <c r="O54" t="s">
+        <v>126</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>413</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>419</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>420</v>
+      </c>
+      <c r="J56" t="s">
+        <v>421</v>
+      </c>
+      <c r="K56" t="s">
+        <v>422</v>
+      </c>
+      <c r="L56" t="s">
+        <v>423</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>425</v>
+      </c>
+      <c r="J57" t="s">
+        <v>426</v>
+      </c>
+      <c r="K57" t="s">
+        <v>427</v>
+      </c>
+      <c r="L57" t="s">
+        <v>428</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>429</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s">
+        <v>434</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>429</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>441</v>
+      </c>
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s">
+        <v>443</v>
+      </c>
+      <c r="L60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>445</v>
+      </c>
+      <c r="O60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>446</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>447</v>
+      </c>
+      <c r="J61" t="s">
+        <v>448</v>
+      </c>
+      <c r="K61" t="s">
+        <v>449</v>
+      </c>
+      <c r="L61" t="s">
+        <v>450</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>451</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>452</v>
+      </c>
+      <c r="J62" t="s">
+        <v>453</v>
+      </c>
+      <c r="K62" t="s">
+        <v>454</v>
+      </c>
+      <c r="L62" t="s">
+        <v>455</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>456</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>459</v>
+      </c>
+      <c r="J63" t="s">
+        <v>460</v>
+      </c>
+      <c r="K63" t="s">
+        <v>461</v>
+      </c>
+      <c r="L63" t="s">
+        <v>462</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>463</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>464</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>465</v>
+      </c>
+      <c r="J64" t="s">
+        <v>466</v>
+      </c>
+      <c r="K64" t="s">
+        <v>467</v>
+      </c>
+      <c r="L64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>469</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>470</v>
+      </c>
+      <c r="J65" t="s">
+        <v>471</v>
+      </c>
+      <c r="K65" t="s">
+        <v>472</v>
+      </c>
+      <c r="L65" t="s">
+        <v>473</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>474</v>
+      </c>
+      <c r="O65" t="s">
+        <v>126</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>475</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>476</v>
+      </c>
+      <c r="J66" t="s">
+        <v>477</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>478</v>
+      </c>
+      <c r="O66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>479</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>480</v>
+      </c>
+      <c r="J67" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" t="s">
+        <v>483</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>478</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>486</v>
+      </c>
+      <c r="J68" t="s">
+        <v>487</v>
+      </c>
+      <c r="K68" t="s">
+        <v>488</v>
+      </c>
+      <c r="L68" t="s">
+        <v>489</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>490</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>491</v>
+      </c>
+      <c r="J69" t="s">
+        <v>492</v>
+      </c>
+      <c r="K69" t="s">
+        <v>493</v>
+      </c>
+      <c r="L69" t="s">
+        <v>494</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>495</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>497</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>498</v>
+      </c>
+      <c r="J70" t="s">
+        <v>499</v>
+      </c>
+      <c r="K70" t="s">
+        <v>500</v>
+      </c>
+      <c r="L70" t="s">
+        <v>501</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>503</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>504</v>
+      </c>
+      <c r="J71" t="s">
+        <v>505</v>
+      </c>
+      <c r="K71" t="s">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s">
+        <v>507</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>508</v>
+      </c>
+      <c r="O71" t="s">
+        <v>126</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>509</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>510</v>
+      </c>
+      <c r="J72" t="s">
+        <v>511</v>
+      </c>
+      <c r="K72" t="s">
+        <v>512</v>
+      </c>
+      <c r="L72" t="s">
+        <v>513</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>514</v>
+      </c>
+      <c r="O72" t="s">
+        <v>126</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>515</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>516</v>
+      </c>
+      <c r="J73" t="s">
+        <v>517</v>
+      </c>
+      <c r="K73" t="s">
+        <v>518</v>
+      </c>
+      <c r="L73" t="s">
+        <v>519</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>520</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>521</v>
+      </c>
+      <c r="J74" t="s">
+        <v>522</v>
+      </c>
+      <c r="K74" t="s">
+        <v>523</v>
+      </c>
+      <c r="L74" t="s">
+        <v>524</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>525</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>527</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>528</v>
+      </c>
+      <c r="J75" t="s">
+        <v>529</v>
+      </c>
+      <c r="K75" t="s">
+        <v>530</v>
+      </c>
+      <c r="L75" t="s">
+        <v>531</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>532</v>
+      </c>
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54919</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>533</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>534</v>
+      </c>
+      <c r="J76" t="s">
+        <v>535</v>
+      </c>
+      <c r="K76" t="s">
+        <v>536</v>
+      </c>
+      <c r="L76" t="s">
+        <v>537</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>532</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
